--- a/Info.xlsx
+++ b/Info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anaol\Desktop\Codigo tese 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anaol\OneDrive\Documentos\Tese-Energy-NexIK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736B5C2C-6BE2-41E4-AF00-CAB146509980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2D886B-4118-4DF8-86BB-310BFC7A4664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="648" windowWidth="11196" windowHeight="11712" xr2:uid="{7EEC59D9-631F-4862-A70A-29DF975AB7E3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7EEC59D9-631F-4862-A70A-29DF975AB7E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Lds_inputs" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Load</t>
   </si>
@@ -56,9 +56,6 @@
     <t>T_start</t>
   </si>
   <si>
-    <t>Power</t>
-  </si>
-  <si>
     <t>Motor 1</t>
   </si>
   <si>
@@ -102,6 +99,21 @@
   </si>
   <si>
     <t>Dishwasher</t>
+  </si>
+  <si>
+    <t>Power_max</t>
+  </si>
+  <si>
+    <t>Weight_max</t>
+  </si>
+  <si>
+    <t>Weight_min</t>
+  </si>
+  <si>
+    <t>y_max (%)</t>
+  </si>
+  <si>
+    <t>y_min (%)</t>
   </si>
 </sst>
 </file>
@@ -453,19 +465,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD2F340-CD19-4345-9EDD-62EAAEC20F83}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.109375" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,12 +501,24 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -510,10 +538,22 @@
       <c r="G2">
         <v>90</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>100</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -533,10 +573,22 @@
       <c r="G3">
         <v>90</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+      <c r="K3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -556,10 +608,22 @@
       <c r="G4">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>100</v>
+      </c>
+      <c r="K4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -579,10 +643,22 @@
       <c r="G5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>100</v>
+      </c>
+      <c r="K5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -602,10 +678,22 @@
       <c r="G6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="K6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -625,10 +713,22 @@
       <c r="G7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <v>9</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>100</v>
+      </c>
+      <c r="K7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -648,10 +748,22 @@
       <c r="G8">
         <v>590</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="K8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -671,10 +783,22 @@
       <c r="G9">
         <v>500</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>100</v>
+      </c>
+      <c r="K9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -694,10 +818,22 @@
       <c r="G10">
         <v>180</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>100</v>
+      </c>
+      <c r="K10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -717,10 +853,22 @@
       <c r="G11">
         <v>192</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>100</v>
+      </c>
+      <c r="K11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -740,10 +888,22 @@
       <c r="G12">
         <v>300</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>100</v>
+      </c>
+      <c r="K12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -763,10 +923,22 @@
       <c r="G13">
         <v>300</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>100</v>
+      </c>
+      <c r="K13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -786,10 +958,22 @@
       <c r="G14">
         <v>1000</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>100</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -809,10 +993,22 @@
       <c r="G15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>100</v>
+      </c>
+      <c r="K15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -831,6 +1027,18 @@
       </c>
       <c r="G16">
         <v>2000</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>100</v>
+      </c>
+      <c r="K16">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
